--- a/SchedulingData/dynamic14/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>87.78</v>
+        <v>52.8</v>
       </c>
       <c r="E2" t="n">
-        <v>25.892</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.90000000000001</v>
+        <v>59.16</v>
       </c>
       <c r="E3" t="n">
-        <v>27.04</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.16</v>
       </c>
       <c r="D4" t="n">
-        <v>65.5</v>
+        <v>104.5</v>
       </c>
       <c r="E4" t="n">
-        <v>25.14</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87.78</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>131.34</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>23.156</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>69.14</v>
+        <v>81.72</v>
       </c>
       <c r="E6" t="n">
-        <v>26.256</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="7">
@@ -561,302 +561,302 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="D7" t="n">
-        <v>44.16</v>
+        <v>111.34</v>
       </c>
       <c r="E7" t="n">
-        <v>27.264</v>
+        <v>22.176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70.90000000000001</v>
+        <v>104.5</v>
       </c>
       <c r="D8" t="n">
-        <v>164.04</v>
+        <v>156.22</v>
       </c>
       <c r="E8" t="n">
-        <v>23.296</v>
+        <v>19.808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69.14</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>118</v>
+        <v>73.3</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>164.04</v>
+        <v>81.72</v>
       </c>
       <c r="D10" t="n">
-        <v>213.92</v>
+        <v>138.66</v>
       </c>
       <c r="E10" t="n">
-        <v>19.448</v>
+        <v>22.384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>213.92</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>252.82</v>
+        <v>118.86</v>
       </c>
       <c r="E11" t="n">
-        <v>16.688</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>131.34</v>
+        <v>138.66</v>
       </c>
       <c r="D12" t="n">
-        <v>184.94</v>
+        <v>193.52</v>
       </c>
       <c r="E12" t="n">
-        <v>19.436</v>
+        <v>20.008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44.16</v>
+        <v>156.22</v>
       </c>
       <c r="D13" t="n">
-        <v>94.44</v>
+        <v>207.44</v>
       </c>
       <c r="E13" t="n">
-        <v>23.876</v>
+        <v>16.816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>118</v>
+        <v>193.52</v>
       </c>
       <c r="D14" t="n">
-        <v>169.62</v>
+        <v>241.78</v>
       </c>
       <c r="E14" t="n">
-        <v>18.968</v>
+        <v>16.312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="D15" t="n">
-        <v>66.76000000000001</v>
+        <v>126.56</v>
       </c>
       <c r="E15" t="n">
-        <v>26.524</v>
+        <v>23.144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.76</v>
+        <v>54.04</v>
       </c>
       <c r="E16" t="n">
-        <v>22.444</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>94.44</v>
+        <v>126.56</v>
       </c>
       <c r="D17" t="n">
-        <v>133.62</v>
+        <v>180.1</v>
       </c>
       <c r="E17" t="n">
-        <v>21.588</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65.5</v>
+        <v>180.1</v>
       </c>
       <c r="D18" t="n">
-        <v>143.74</v>
+        <v>242.38</v>
       </c>
       <c r="E18" t="n">
-        <v>21.916</v>
+        <v>15.812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>133.62</v>
+        <v>118.86</v>
       </c>
       <c r="D19" t="n">
-        <v>195.66</v>
+        <v>175.22</v>
       </c>
       <c r="E19" t="n">
-        <v>18.004</v>
+        <v>19.908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>128.76</v>
+        <v>111.34</v>
       </c>
       <c r="D20" t="n">
-        <v>173.86</v>
+        <v>163.44</v>
       </c>
       <c r="E20" t="n">
-        <v>19.064</v>
+        <v>18.096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>195.66</v>
+        <v>207.44</v>
       </c>
       <c r="D21" t="n">
-        <v>249.34</v>
+        <v>257.24</v>
       </c>
       <c r="E21" t="n">
-        <v>14.756</v>
+        <v>12.976</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>184.94</v>
+        <v>163.44</v>
       </c>
       <c r="D22" t="n">
-        <v>222.14</v>
+        <v>208.54</v>
       </c>
       <c r="E22" t="n">
-        <v>16.356</v>
+        <v>14.716</v>
       </c>
     </row>
     <row r="23">
@@ -865,93 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>252.82</v>
+        <v>242.38</v>
       </c>
       <c r="D23" t="n">
-        <v>305.32</v>
+        <v>306.68</v>
       </c>
       <c r="E23" t="n">
-        <v>13.568</v>
+        <v>11.492</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>169.62</v>
+        <v>175.22</v>
       </c>
       <c r="D24" t="n">
-        <v>244.74</v>
+        <v>241.42</v>
       </c>
       <c r="E24" t="n">
-        <v>16.056</v>
+        <v>17.388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>244.74</v>
+        <v>208.54</v>
       </c>
       <c r="D25" t="n">
-        <v>300.84</v>
+        <v>276.74</v>
       </c>
       <c r="E25" t="n">
-        <v>11.576</v>
+        <v>10.036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>173.86</v>
+        <v>257.24</v>
       </c>
       <c r="D26" t="n">
-        <v>225.48</v>
+        <v>336.74</v>
       </c>
       <c r="E26" t="n">
-        <v>15.032</v>
+        <v>8.116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>305.32</v>
+        <v>276.74</v>
       </c>
       <c r="D27" t="n">
-        <v>375.92</v>
+        <v>347.74</v>
       </c>
       <c r="E27" t="n">
-        <v>9.608000000000001</v>
+        <v>5.536</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>300.84</v>
+        <v>54.04</v>
       </c>
       <c r="D28" t="n">
-        <v>339.48</v>
+        <v>114.54</v>
       </c>
       <c r="E28" t="n">
-        <v>8.352</v>
+        <v>23.816</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>143.74</v>
+        <v>114.54</v>
       </c>
       <c r="D29" t="n">
-        <v>208.16</v>
+        <v>198.72</v>
       </c>
       <c r="E29" t="n">
-        <v>17.604</v>
+        <v>19.968</v>
       </c>
     </row>
     <row r="30">
@@ -998,169 +998,169 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>208.16</v>
+        <v>241.42</v>
       </c>
       <c r="D30" t="n">
-        <v>248.5</v>
+        <v>294.32</v>
       </c>
       <c r="E30" t="n">
-        <v>14.7</v>
+        <v>13.228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>249.34</v>
+        <v>336.74</v>
       </c>
       <c r="D31" t="n">
-        <v>324.44</v>
+        <v>408.54</v>
       </c>
       <c r="E31" t="n">
-        <v>11.336</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>324.44</v>
+        <v>241.78</v>
       </c>
       <c r="D32" t="n">
-        <v>382.24</v>
+        <v>296.96</v>
       </c>
       <c r="E32" t="n">
-        <v>7.176</v>
+        <v>12.924</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>222.14</v>
+        <v>296.96</v>
       </c>
       <c r="D33" t="n">
-        <v>263.36</v>
+        <v>358.68</v>
       </c>
       <c r="E33" t="n">
-        <v>13.364</v>
+        <v>8.891999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>339.48</v>
+        <v>358.68</v>
       </c>
       <c r="D34" t="n">
-        <v>402.58</v>
+        <v>392.44</v>
       </c>
       <c r="E34" t="n">
-        <v>3.672</v>
+        <v>6.156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>375.92</v>
+        <v>408.54</v>
       </c>
       <c r="D35" t="n">
-        <v>418.84</v>
+        <v>447.3</v>
       </c>
       <c r="E35" t="n">
-        <v>6.956</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>248.5</v>
+        <v>198.72</v>
       </c>
       <c r="D36" t="n">
-        <v>298.2</v>
+        <v>269.32</v>
       </c>
       <c r="E36" t="n">
-        <v>10.86</v>
+        <v>16.008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>263.36</v>
+        <v>306.68</v>
       </c>
       <c r="D37" t="n">
-        <v>310.42</v>
+        <v>355.58</v>
       </c>
       <c r="E37" t="n">
-        <v>10.768</v>
+        <v>8.731999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>225.48</v>
+        <v>347.74</v>
       </c>
       <c r="D38" t="n">
-        <v>273.18</v>
+        <v>376.14</v>
       </c>
       <c r="E38" t="n">
-        <v>11.392</v>
+        <v>3.336</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>298.2</v>
+        <v>294.32</v>
       </c>
       <c r="D39" t="n">
-        <v>366.68</v>
+        <v>346.72</v>
       </c>
       <c r="E39" t="n">
-        <v>8.132</v>
+        <v>10.108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>366.68</v>
+        <v>269.32</v>
       </c>
       <c r="D40" t="n">
-        <v>427.98</v>
+        <v>332.76</v>
       </c>
       <c r="E40" t="n">
-        <v>5.612</v>
+        <v>12.264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>402.58</v>
+        <v>346.72</v>
       </c>
       <c r="D41" t="n">
-        <v>450.58</v>
+        <v>425</v>
       </c>
       <c r="E41" t="n">
-        <v>1.472</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="42">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450.58</v>
+        <v>332.76</v>
       </c>
       <c r="D42" t="n">
-        <v>548.9400000000001</v>
+        <v>411.68</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>7.952</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>273.18</v>
+        <v>447.3</v>
       </c>
       <c r="D43" t="n">
-        <v>328.24</v>
+        <v>539.2</v>
       </c>
       <c r="E43" t="n">
-        <v>9.016</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,131 +1264,131 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>310.42</v>
+        <v>539.2</v>
       </c>
       <c r="D44" t="n">
-        <v>371.84</v>
+        <v>580.22</v>
       </c>
       <c r="E44" t="n">
-        <v>6.736</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>371.84</v>
+        <v>376.14</v>
       </c>
       <c r="D45" t="n">
-        <v>460.84</v>
+        <v>470.77</v>
       </c>
       <c r="E45" t="n">
-        <v>2.416</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>427.98</v>
+        <v>470.77</v>
       </c>
       <c r="D46" t="n">
-        <v>494.18</v>
+        <v>511.97</v>
       </c>
       <c r="E46" t="n">
-        <v>3.572</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>548.9400000000001</v>
+        <v>511.97</v>
       </c>
       <c r="D47" t="n">
-        <v>620.6</v>
+        <v>573.03</v>
       </c>
       <c r="E47" t="n">
-        <v>26.984</v>
+        <v>24.084</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>328.24</v>
+        <v>425</v>
       </c>
       <c r="D48" t="n">
-        <v>390.44</v>
+        <v>493.78</v>
       </c>
       <c r="E48" t="n">
-        <v>4.936</v>
+        <v>4.132</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>382.24</v>
+        <v>355.58</v>
       </c>
       <c r="D49" t="n">
-        <v>430.6</v>
+        <v>416.64</v>
       </c>
       <c r="E49" t="n">
-        <v>3.96</v>
+        <v>5.256</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>390.44</v>
+        <v>411.68</v>
       </c>
       <c r="D50" t="n">
-        <v>458.7</v>
+        <v>448.38</v>
       </c>
       <c r="E50" t="n">
-        <v>1.24</v>
+        <v>5.912</v>
       </c>
     </row>
     <row r="51">
@@ -1397,74 +1397,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>458.7</v>
+        <v>392.44</v>
       </c>
       <c r="D51" t="n">
-        <v>538.12</v>
+        <v>455.74</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>2.436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>538.12</v>
+        <v>416.64</v>
       </c>
       <c r="D52" t="n">
-        <v>629.42</v>
+        <v>475.82</v>
       </c>
       <c r="E52" t="n">
-        <v>25.5</v>
+        <v>2.968</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>430.6</v>
+        <v>448.38</v>
       </c>
       <c r="D53" t="n">
-        <v>471.86</v>
+        <v>521</v>
       </c>
       <c r="E53" t="n">
-        <v>1.464</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>6</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>471.86</v>
-      </c>
-      <c r="D54" t="n">
-        <v>560.63</v>
-      </c>
-      <c r="E54" t="n">
-        <v>30</v>
+        <v>3.26</v>
       </c>
     </row>
   </sheetData>
